--- a/CSVファイル一覧.xlsx
+++ b/CSVファイル一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19DDB83-CF34-4E23-BE81-B57E662E610E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCEBB42-767A-4AED-AA8C-1F0B663A43C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4CF9E08B-6A9D-41B3-B85E-48847B577206}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
@@ -213,6 +213,73 @@
     </rPh>
     <rPh sb="79" eb="81">
       <t>ジョガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input2.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・input.csvを元に以下の通り編集
+・帯広のレースを除外
+・着番が取、除、失、中である馬を含むレースを除外
+・以下のカラムが欠損値となっているレコードを除外
+    ・同騎手の直近過去10回のレースの騎手複勝率
+    ・同騎手の直近過去20回のレースの騎手複勝率
+    ・同騎手の直近過去30回のレースの騎手複勝率
+    ・同騎手の直近過去40回のレースの騎手複勝率
+    ・同騎手の直近過去50回のレースの騎手複勝率</t>
+    <rPh sb="11" eb="12">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オビヒロ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>チャクバン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>ケッソンチ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>キシュ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>カイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -281,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -289,6 +356,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -625,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0977A30D-CDCB-42D4-9057-65B0C72BD630}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -644,19 +714,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="252" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="162" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="162" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/CSVファイル一覧.xlsx
+++ b/CSVファイル一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCEBB42-767A-4AED-AA8C-1F0B663A43C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A280078-677A-4676-BBA8-C755478274E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4CF9E08B-6A9D-41B3-B85E-48847B577206}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
@@ -280,6 +280,56 @@
     </rPh>
     <rPh sb="97" eb="98">
       <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input3.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・input.csvを元に以下の通り編集
+・帯広のレースを除外
+・着番が取、除、失、中である馬を含むレースを除外
+・position_4が空であるレースを除外</t>
+    <rPh sb="11" eb="12">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オビヒロ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>チャクバン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ジョガイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -695,9 +745,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0977A30D-CDCB-42D4-9057-65B0C72BD630}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -737,6 +789,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CSVファイル一覧.xlsx
+++ b/CSVファイル一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A280078-677A-4676-BBA8-C755478274E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6321982E-65E2-4E2A-BCE0-FD35C8F2FB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4CF9E08B-6A9D-41B3-B85E-48847B577206}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
@@ -163,10 +163,143 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>input2.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input3.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input4.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>・input.csvを元に以下の通り編集
 ・帯広のレースを除外
 ・着番が取、除、失、中である馬を含むレースを除外
-・以下のカラムが欠損値となっているレコードを除外
+・第4コーナーの通過順位が欠損値であるレースを除外</t>
+    <rPh sb="11" eb="12">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オビヒロ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>チャクバン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ケッソン</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ジョガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・input.csvを元に以下の通り編集
+・帯広のレースを除外
+・着番が取、除、失、中である馬を含むレースを除外
+・以下のカラムが欠損値であるレコードを除外
+    ・同騎手の直近過去10回のレースの騎手複勝率
+    ・同騎手の直近過去20回のレースの騎手複勝率
+    ・同騎手の直近過去30回のレースの騎手複勝率
+    ・同騎手の直近過去40回のレースの騎手複勝率
+    ・同騎手の直近過去50回のレースの騎手複勝率</t>
+    <rPh sb="11" eb="12">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オビヒロ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>チャクバン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>ケッソンチ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>キシュ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・input.csvを元に以下の通り編集
+・帯広のレースを除外
+・着番が取、除、失、中である馬を含むレースを除外
+・以下のカラムが欠損値であるレコードを除外
     ・同馬の直近過去1回のレースのタイム指数
     ・同馬の直近過去2回のタイム指数平均
     ・同馬の直近過去3回のタイム指数平均
@@ -211,25 +344,19 @@
     <rPh sb="65" eb="68">
       <t>ケッソンチ</t>
     </rPh>
-    <rPh sb="79" eb="81">
-      <t>ジョガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>input2.csv</t>
+    <rPh sb="76" eb="78">
+      <t>ジョガイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・input.csvを元に以下の通り編集
 ・帯広のレースを除外
 ・着番が取、除、失、中である馬を含むレースを除外
-・以下のカラムが欠損値となっているレコードを除外
-    ・同騎手の直近過去10回のレースの騎手複勝率
-    ・同騎手の直近過去20回のレースの騎手複勝率
-    ・同騎手の直近過去30回のレースの騎手複勝率
-    ・同騎手の直近過去40回のレースの騎手複勝率
-    ・同騎手の直近過去50回のレースの騎手複勝率</t>
+・以下のカラムが欠損値であるレコードを除外
+    ・同馬の直近過去2回のタイム指数平均
+    ・同騎手の直近過去50回のレースの騎手複勝率
+    ・第4コーナーの通過順位</t>
     <rPh sb="11" eb="12">
       <t>モト</t>
     </rPh>
@@ -263,73 +390,14 @@
     <rPh sb="54" eb="56">
       <t>ジョガイ</t>
     </rPh>
-    <rPh sb="58" eb="60">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="65" eb="68">
-      <t>ケッソンチ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ジョガイ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>キシュ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>input3.csv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・input.csvを元に以下の通り編集
-・帯広のレースを除外
-・着番が取、除、失、中である馬を含むレースを除外
-・position_4が空であるレースを除外</t>
-    <rPh sb="11" eb="12">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>オビヒロ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジョガイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>チャクバン</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ウマ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ジョガイ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ジョガイ</t>
+    <rPh sb="134" eb="135">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ジュンイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -745,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0977A30D-CDCB-42D4-9057-65B0C72BD630}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -778,23 +846,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="162" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
+    </row>
+    <row r="6" spans="1:2" ht="126" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
